--- a/results/MULTI/albert-base-v2_all/recipes_test_multi.xlsx
+++ b/results/MULTI/albert-base-v2_all/recipes_test_multi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\PycharmProjects\action-trigger-relation-extraction\results\MULTI\albert-base-v2_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695C9006-7EC8-4262-9896-3AEEB3619613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA286D26-0C0D-41FE-9502-DA9770CA9D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1640,7 +1640,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1920,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="G260" sqref="G260"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="C254" sqref="C254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3588,7 +3588,7 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B152" t="s">
@@ -4732,7 +4732,7 @@
         <v>510</v>
       </c>
       <c r="E259">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="260" spans="4:5" x14ac:dyDescent="0.3">
@@ -4740,7 +4740,7 @@
         <v>511</v>
       </c>
       <c r="E260">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="262" spans="4:5" x14ac:dyDescent="0.3">
